--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_AREPD_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_AREPD_Lineal_No_Estacionario_ARIMA.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.2745165347500707</v>
+        <v>-0.2683900306044935</v>
       </c>
       <c r="D2">
-        <v>0.7837214703378494</v>
+        <v>0.7908997231467618</v>
       </c>
       <c r="E2">
         <v>7.89175595638292</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.7791310378480952</v>
+        <v>-0.81145292881394</v>
       </c>
       <c r="D3">
-        <v>0.4360123268692095</v>
+        <v>0.4257982683053081</v>
       </c>
       <c r="E3">
         <v>7.89175595638292</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-2.750278422141786</v>
+        <v>-2.466225374689981</v>
       </c>
       <c r="D4">
-        <v>0.006018357520764184</v>
+        <v>0.02192211205031702</v>
       </c>
       <c r="E4">
         <v>7.89175595638292</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-2.893478328605826</v>
+        <v>-3.943069974229491</v>
       </c>
       <c r="D5">
-        <v>0.003859152459354975</v>
+        <v>0.0006928758670583512</v>
       </c>
       <c r="E5">
         <v>7.89175595638292</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.4942701637173602</v>
+        <v>-0.4741569796156098</v>
       </c>
       <c r="D6">
-        <v>0.6211800527562623</v>
+        <v>0.6400601932473062</v>
       </c>
       <c r="E6">
         <v>8.078274830184577</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-2.238743069622126</v>
+        <v>-2.204906921200918</v>
       </c>
       <c r="D7">
-        <v>0.0253032031440239</v>
+        <v>0.0382152013885364</v>
       </c>
       <c r="E7">
         <v>8.078274830184577</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-2.61131645538511</v>
+        <v>-3.222872083801362</v>
       </c>
       <c r="D8">
-        <v>0.009099778023905269</v>
+        <v>0.003915142416773154</v>
       </c>
       <c r="E8">
         <v>8.078274830184577</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-1.971165586787342</v>
+        <v>-1.603938226072133</v>
       </c>
       <c r="D9">
-        <v>0.04886893808418447</v>
+        <v>0.1229886866583949</v>
       </c>
       <c r="E9">
         <v>8.429213762165707</v>
@@ -635,7 +635,7 @@
         <v>10.2304033711193</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9">
         <v>60</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-2.031354755251325</v>
+        <v>-2.503774378179249</v>
       </c>
       <c r="D10">
-        <v>0.04237624994071054</v>
+        <v>0.02019990956805739</v>
       </c>
       <c r="E10">
         <v>8.429213762165707</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.5724662607382789</v>
+        <v>-0.625074214271514</v>
       </c>
       <c r="D11">
-        <v>0.5670827811832142</v>
+        <v>0.5383524450158101</v>
       </c>
       <c r="E11">
         <v>10.2304033711193</v>
